--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>454118.3163027547</v>
+        <v>451417.0996512977</v>
       </c>
     </row>
     <row r="7">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,7 +674,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>212.568965117905</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>77.79707057279531</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>194.870272330801</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888212</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>124.7650187107625</v>
       </c>
       <c r="V4" t="n">
-        <v>52.55417978459825</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>197.9404491961602</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>102.0757096957198</v>
       </c>
       <c r="F5" t="n">
-        <v>383.6877278154327</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.41899097776992</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660374</v>
+        <v>143.3066953660375</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>132.2250778293591</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>97.84123035967478</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333225</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951723</v>
+        <v>36.27346476951728</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713678</v>
+        <v>4.360182258713778</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
         <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>90.33488679271879</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015377</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643408</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>106.7704271215205</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>159.2508239713356</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>180.6261618334205</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>47.82814756577479</v>
       </c>
       <c r="T10" t="n">
-        <v>196.1118455163123</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>366.7253170758275</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184557</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>76.66276752108563</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>136.7254352278178</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>134.2093591862345</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927374</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>99.97427419833839</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>53.82913822149962</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428163</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>99.9742741983374</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>142.5631989720296</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>216.4795114578131</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>163.714581371435</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>122.6028762599952</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,10 +3244,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.1425517567745</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833838</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.0656089242822</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833791</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428175</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.00642392276842</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276842</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356494</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H2" t="n">
         <v>21.09711040012049</v>
@@ -4328,19 +4328,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.2826908791767</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358413</v>
@@ -4349,31 +4349,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>788.4778634388465</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W2" t="n">
-        <v>573.7617370571243</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X2" t="n">
         <v>573.7617370571243</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.3840804899463</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.2565623210693</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="C3" t="n">
-        <v>475.8035330399423</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
         <v>21.09711040012049</v>
@@ -4410,49 +4410,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957456</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267548</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560895</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006024</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006024</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006024</v>
+        <v>827.6363220413841</v>
       </c>
       <c r="V3" t="n">
-        <v>1054.855520006024</v>
+        <v>592.4842138096415</v>
       </c>
       <c r="W3" t="n">
-        <v>1054.855520006024</v>
+        <v>338.2468570814398</v>
       </c>
       <c r="X3" t="n">
-        <v>858.0168610860233</v>
+        <v>338.2468570814398</v>
       </c>
       <c r="Y3" t="n">
-        <v>650.2565623210693</v>
+        <v>338.2468570814398</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>328.2753322811682</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C4" t="n">
-        <v>328.2753322811682</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>328.2753322811682</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>328.2753322811682</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>328.2753322811682</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>159.7059716361717</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361717</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434486</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551007</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006024</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640386</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="U4" t="n">
-        <v>829.3864837640386</v>
+        <v>496.5741777495375</v>
       </c>
       <c r="V4" t="n">
-        <v>776.3014536785859</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W4" t="n">
-        <v>509.9237971114079</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X4" t="n">
-        <v>509.9237971114079</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y4" t="n">
-        <v>509.9237971114079</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>816.5910675842897</v>
+        <v>824.6297868372151</v>
       </c>
       <c r="C5" t="n">
-        <v>816.5910675842897</v>
+        <v>824.6297868372151</v>
       </c>
       <c r="D5" t="n">
-        <v>816.5910675842897</v>
+        <v>466.3640882304646</v>
       </c>
       <c r="E5" t="n">
-        <v>430.8028149860454</v>
+        <v>363.2573107600405</v>
       </c>
       <c r="F5" t="n">
-        <v>43.23945355631535</v>
+        <v>356.3118100108371</v>
       </c>
       <c r="G5" t="n">
-        <v>30.69501822523462</v>
+        <v>343.7673746797564</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523462</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523462</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275277</v>
+        <v>93.76641159275167</v>
       </c>
       <c r="K5" t="n">
-        <v>239.032598924558</v>
+        <v>239.0325989245566</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825659</v>
+        <v>456.149911482564</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748894</v>
+        <v>729.4041931748868</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202384</v>
+        <v>1011.693823202381</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798418</v>
+        <v>1264.916654798415</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189416</v>
+        <v>1446.535482189412</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261731</v>
+        <v>1534.750911261726</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261731</v>
+        <v>1534.750911261726</v>
       </c>
       <c r="S5" t="n">
-        <v>1389.996673518259</v>
+        <v>1389.996673518254</v>
       </c>
       <c r="T5" t="n">
-        <v>1389.996673518259</v>
+        <v>1177.398442107329</v>
       </c>
       <c r="U5" t="n">
-        <v>1389.996673518259</v>
+        <v>1177.398442107329</v>
       </c>
       <c r="V5" t="n">
-        <v>1389.996673518259</v>
+        <v>1177.398442107329</v>
       </c>
       <c r="W5" t="n">
-        <v>1389.996673518259</v>
+        <v>824.6297868372151</v>
       </c>
       <c r="X5" t="n">
-        <v>1016.530915257179</v>
+        <v>824.6297868372151</v>
       </c>
       <c r="Y5" t="n">
-        <v>1016.530915257179</v>
+        <v>824.6297868372151</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.9846379131068</v>
+        <v>499.854891531203</v>
       </c>
       <c r="C6" t="n">
-        <v>604.9846379131068</v>
+        <v>325.401862250076</v>
       </c>
       <c r="D6" t="n">
-        <v>471.4239532369864</v>
+        <v>325.401862250076</v>
       </c>
       <c r="E6" t="n">
-        <v>312.1864982315309</v>
+        <v>166.1644072446205</v>
       </c>
       <c r="F6" t="n">
-        <v>165.6519402584159</v>
+        <v>67.33488162878734</v>
       </c>
       <c r="G6" t="n">
-        <v>165.6519402584159</v>
+        <v>67.33488162878734</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878737</v>
+        <v>67.33488162878734</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523462</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="J6" t="n">
-        <v>70.78704471034438</v>
+        <v>49.44206107563438</v>
       </c>
       <c r="K6" t="n">
-        <v>180.9835516516552</v>
+        <v>159.638568016945</v>
       </c>
       <c r="L6" t="n">
-        <v>375.4788954830077</v>
+        <v>354.1339118482971</v>
       </c>
       <c r="M6" t="n">
-        <v>621.8026561537542</v>
+        <v>600.4576725190433</v>
       </c>
       <c r="N6" t="n">
-        <v>889.0545187259773</v>
+        <v>980.3085230563206</v>
       </c>
       <c r="O6" t="n">
-        <v>1111.317965891496</v>
+        <v>1202.571970221839</v>
       </c>
       <c r="P6" t="n">
-        <v>1270.370911090185</v>
+        <v>1478.347425948671</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261731</v>
+        <v>1534.750911261726</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.34668675798</v>
+        <v>1530.346686757975</v>
       </c>
       <c r="S6" t="n">
-        <v>1530.34668675798</v>
+        <v>1385.87827315207</v>
       </c>
       <c r="T6" t="n">
-        <v>1530.34668675798</v>
+        <v>1189.973630703754</v>
       </c>
       <c r="U6" t="n">
-        <v>1302.225603078584</v>
+        <v>961.8525470243585</v>
       </c>
       <c r="V6" t="n">
-        <v>1067.073494846841</v>
+        <v>961.8525470243585</v>
       </c>
       <c r="W6" t="n">
-        <v>812.8361381186396</v>
+        <v>707.6151902961569</v>
       </c>
       <c r="X6" t="n">
-        <v>604.9846379131068</v>
+        <v>707.6151902961569</v>
       </c>
       <c r="Y6" t="n">
-        <v>604.9846379131068</v>
+        <v>499.854891531203</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>241.5940474241234</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="C7" t="n">
-        <v>241.5940474241234</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="D7" t="n">
-        <v>241.5940474241234</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="E7" t="n">
-        <v>241.5940474241234</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="F7" t="n">
-        <v>241.5940474241234</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="G7" t="n">
-        <v>150.3466870274377</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="H7" t="n">
-        <v>150.3466870274377</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709665</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523462</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223271</v>
+        <v>157.4322756223268</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830396</v>
+        <v>375.1387655830392</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388163</v>
+        <v>615.0688576388158</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974838</v>
+        <v>854.7285647974832</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891674</v>
+        <v>1060.076798891673</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934024</v>
+        <v>1212.267005934023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495186</v>
+        <v>1234.200536495185</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495186</v>
+        <v>1113.866490402742</v>
       </c>
       <c r="S7" t="n">
-        <v>1234.200536495186</v>
+        <v>910.3578444371313</v>
       </c>
       <c r="T7" t="n">
-        <v>1234.200536495186</v>
+        <v>910.3578444371313</v>
       </c>
       <c r="U7" t="n">
-        <v>945.0606656715577</v>
+        <v>621.2179736135029</v>
       </c>
       <c r="V7" t="n">
-        <v>690.3761774656708</v>
+        <v>366.533485407616</v>
       </c>
       <c r="W7" t="n">
-        <v>690.3761774656708</v>
+        <v>258.6845691232519</v>
       </c>
       <c r="X7" t="n">
-        <v>462.3866265676535</v>
+        <v>30.69501822523453</v>
       </c>
       <c r="Y7" t="n">
-        <v>241.5940474241234</v>
+        <v>30.69501822523453</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>944.3110907974335</v>
+        <v>1378.810406950777</v>
       </c>
       <c r="C8" t="n">
-        <v>944.3110907974335</v>
+        <v>1378.810406950777</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974335</v>
+        <v>1020.544708344026</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>634.756455745782</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>223.7705509561744</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>212.1062047208674</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2255.189452408018</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2001.608391672198</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>1670.545504328627</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>1317.776849058513</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="X8" t="n">
-        <v>944.3110907974335</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="Y8" t="n">
-        <v>944.3110907974335</v>
+        <v>1378.810406950777</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429755</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744472</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
         <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O9" t="n">
         <v>1884.562538506774</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>770.9577966591559</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C10" t="n">
-        <v>602.021613731249</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>451.9049743189132</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>303.9918807365201</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1485.55145342263</v>
       </c>
       <c r="T10" t="n">
-        <v>1241.724598985558</v>
+        <v>1262.572972617366</v>
       </c>
       <c r="U10" t="n">
-        <v>952.6062614893956</v>
+        <v>973.4546351212036</v>
       </c>
       <c r="V10" t="n">
-        <v>952.6062614893956</v>
+        <v>718.7701469153168</v>
       </c>
       <c r="W10" t="n">
-        <v>952.6062614893956</v>
+        <v>429.3529768783562</v>
       </c>
       <c r="X10" t="n">
-        <v>952.6062614893956</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="Y10" t="n">
-        <v>952.6062614893956</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1585.374274584229</v>
+        <v>1898.076467649853</v>
       </c>
       <c r="C11" t="n">
-        <v>1216.411757643818</v>
+        <v>1529.113950709441</v>
       </c>
       <c r="D11" t="n">
-        <v>858.1460590370675</v>
+        <v>1170.848252102691</v>
       </c>
       <c r="E11" t="n">
-        <v>472.3578064388234</v>
+        <v>785.0599995044468</v>
       </c>
       <c r="F11" t="n">
-        <v>101.9281932309162</v>
+        <v>785.0599995044468</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9281932309162</v>
+        <v>370.4442349455922</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="I11" t="n">
-        <v>77.5376659159207</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="J11" t="n">
         <v>304.406079670689</v>
@@ -5054,25 +5054,25 @@
         <v>2455.600890484041</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535295</v>
+        <v>3033.988513535294</v>
       </c>
       <c r="P11" t="n">
         <v>3493.127967479993</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.74982946406</v>
+        <v>3789.749829464059</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796035</v>
+        <v>3876.883295796034</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796035</v>
+        <v>3876.883295796034</v>
       </c>
       <c r="T11" t="n">
         <v>3672.904689377399</v>
       </c>
       <c r="U11" t="n">
-        <v>3419.410747498928</v>
+        <v>3419.410747498927</v>
       </c>
       <c r="V11" t="n">
         <v>3088.347860155357</v>
@@ -5084,7 +5084,7 @@
         <v>2362.113446624163</v>
       </c>
       <c r="Y11" t="n">
-        <v>1971.974114648351</v>
+        <v>2284.676307713975</v>
       </c>
     </row>
     <row r="12">
@@ -5112,10 +5112,10 @@
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390848</v>
+        <v>88.13208718390847</v>
       </c>
       <c r="I12" t="n">
-        <v>77.5376659159207</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="J12" t="n">
         <v>193.8410919870412</v>
@@ -5124,22 +5124,22 @@
         <v>470.7769964046655</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626171</v>
+        <v>676.7125526339518</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749523</v>
+        <v>1184.66911859048</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450733</v>
+        <v>1720.47842829169</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2188.419472624213</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>473.2040337786844</v>
+        <v>227.6543053282564</v>
       </c>
       <c r="C13" t="n">
-        <v>304.2678508507774</v>
+        <v>227.6543053282564</v>
       </c>
       <c r="D13" t="n">
-        <v>304.2678508507774</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="E13" t="n">
-        <v>304.2678508507774</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="F13" t="n">
-        <v>304.2678508507774</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="I13" t="n">
-        <v>77.5376659159207</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="J13" t="n">
         <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648144</v>
+        <v>364.1690246648141</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344809</v>
+        <v>710.5788654344808</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
@@ -5230,19 +5230,19 @@
         <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1647.736286893319</v>
+        <v>1358.64459384277</v>
       </c>
       <c r="V13" t="n">
-        <v>1393.051798687432</v>
+        <v>1103.960105636883</v>
       </c>
       <c r="W13" t="n">
-        <v>1103.634628650472</v>
+        <v>814.5429355999227</v>
       </c>
       <c r="X13" t="n">
-        <v>875.6450777524542</v>
+        <v>586.5533847019053</v>
       </c>
       <c r="Y13" t="n">
-        <v>654.8524986089241</v>
+        <v>365.7608055583754</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5288,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998289</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998289</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998289</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>194.8007783998289</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,13 +5525,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>409.1360811687896</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703108</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675715</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851784</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851784</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5677,7 +5677,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713841</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703108</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5753,7 +5753,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5765,13 +5765,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>409.1360811687896</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>904.4616873845483</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>658.9255961109956</v>
+        <v>513.8536007400704</v>
       </c>
       <c r="C22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="D22" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998278</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,13 +5911,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1833.45784922563</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1578.773361019743</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1289.356190982783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1061.366640084765</v>
+        <v>916.2946447138403</v>
       </c>
       <c r="Y22" t="n">
-        <v>840.5740609412353</v>
+        <v>695.5020655703102</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5984,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5993,7 +5993,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,22 +6224,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770323</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851784</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6455,13 +6455,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6473,22 +6473,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188009</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,19 +6637,19 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
         <v>1688.385853854706</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,19 +6859,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="35">
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,16 +7093,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7254,22 +7254,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,7 +7354,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487567</v>
@@ -7369,13 +7369,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7488,25 +7488,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400718</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121649</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121649</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121649</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121649</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270448</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7573,7 +7573,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,7 +7591,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703115</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400713</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121644</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121644</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121644</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418308</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127275</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127223</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438636977</v>
+        <v>34.43939438636994</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>21.56058953000989</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>113.7363514798531</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>117.9015257860038</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>84.94186588374646</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>40.15072866588389</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184557</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>309.5751711349679</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>43.1065449541195</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>31.61364417068916</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927374</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462269</v>
+        <v>40.32043864788547</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>113.4176828771282</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823177</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>143.6212754172145</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.54986409393057</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9259388694751749</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>3.532239727192859</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823152</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,10 +25132,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0.3804465798165165</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823152</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459286</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,10 +26035,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393094</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194214</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1037651.130114931</v>
+        <v>1037651.13011493</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1037651.130114931</v>
+        <v>1037651.13011493</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1037651.130114931</v>
+        <v>1037651.13011493</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1037651.130114931</v>
+        <v>1037651.13011493</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1037651.130114931</v>
+        <v>1037651.13011493</v>
       </c>
     </row>
     <row r="16">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855347</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855343</v>
+        <v>389994.8406855342</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855347</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="E2" t="n">
         <v>347979.8910303378</v>
       </c>
       <c r="F2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.6348527531</v>
       </c>
       <c r="G2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="H2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="I2" t="n">
         <v>383394.6348527529</v>
@@ -26338,22 +26338,22 @@
         <v>383394.6348527529</v>
       </c>
       <c r="K2" t="n">
+        <v>383394.6348527528</v>
+      </c>
+      <c r="L2" t="n">
         <v>383394.634852753</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>383394.6348527527</v>
       </c>
-      <c r="M2" t="n">
-        <v>383394.6348527529</v>
-      </c>
       <c r="N2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="O2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.6348527527</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527528</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911927</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657089</v>
+        <v>132804.2190657076</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929361</v>
+        <v>265413.0723929372</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545773</v>
+        <v>313577.1573545771</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.268770429</v>
+        <v>189308.2687704292</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417467</v>
+        <v>30877.4292641743</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049522</v>
+        <v>65018.34502049557</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273072</v>
+        <v>81897.40371273069</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202366</v>
+        <v>49839.57413202374</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248543.2666865468</v>
+        <v>248543.2666865467</v>
       </c>
       <c r="C4" t="n">
-        <v>212545.7959513235</v>
+        <v>212545.7959513238</v>
       </c>
       <c r="D4" t="n">
-        <v>136726.2736921026</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="E4" t="n">
-        <v>9231.78179711005</v>
+        <v>9231.781797110052</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756603</v>
       </c>
       <c r="J4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
+        <v>9337.200356756617</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="N4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="L4" t="n">
-        <v>9337.200356756606</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.20035675661</v>
-      </c>
       <c r="O4" t="n">
-        <v>9337.200356756613</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675661</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667507</v>
+        <v>72593.65038667498</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738564</v>
+        <v>85137.48506738563</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-601684.2097964711</v>
+        <v>-601684.2097964714</v>
       </c>
       <c r="C6" t="n">
-        <v>-27948.82471817311</v>
+        <v>-27948.82471817215</v>
       </c>
       <c r="D6" t="n">
-        <v>-105082.2778393487</v>
+        <v>-105082.2778393496</v>
       </c>
       <c r="E6" t="n">
-        <v>-59966.53318873519</v>
+        <v>-60187.66450270966</v>
       </c>
       <c r="F6" t="n">
-        <v>83626.63590166025</v>
+        <v>83591.89797622446</v>
       </c>
       <c r="G6" t="n">
-        <v>272934.9046720893</v>
+        <v>272900.1667466537</v>
       </c>
       <c r="H6" t="n">
-        <v>272934.9046720893</v>
+        <v>272900.1667466535</v>
       </c>
       <c r="I6" t="n">
-        <v>272934.9046720892</v>
+        <v>272900.1667466534</v>
       </c>
       <c r="J6" t="n">
-        <v>203935.7502529752</v>
+        <v>203901.0123275394</v>
       </c>
       <c r="K6" t="n">
-        <v>242057.4754079146</v>
+        <v>242022.7374824791</v>
       </c>
       <c r="L6" t="n">
-        <v>207916.5596515937</v>
+        <v>207881.821726158</v>
       </c>
       <c r="M6" t="n">
-        <v>191037.5009593585</v>
+        <v>191002.7630339226</v>
       </c>
       <c r="N6" t="n">
-        <v>223095.3305400655</v>
+        <v>223060.5926146298</v>
       </c>
       <c r="O6" t="n">
-        <v>272934.9046720891</v>
+        <v>272900.1667466533</v>
       </c>
       <c r="P6" t="n">
-        <v>272934.9046720892</v>
+        <v>272900.1667466534</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.331951169576</v>
+        <v>717.3319511695753</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1202.24123721495</v>
@@ -26790,13 +26790,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154327</v>
+        <v>383.6877278154316</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490087</v>
+        <v>969.2208239490086</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000979</v>
+        <v>103.2769374000969</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479631</v>
+        <v>216.732940947964</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974113</v>
+        <v>268.1763450974111</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267234</v>
+        <v>165.7342631267236</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139266</v>
+        <v>119.9738478139254</v>
       </c>
       <c r="D4" t="n">
-        <v>256.897104284606</v>
+        <v>256.8971042846072</v>
       </c>
       <c r="E4" t="n">
-        <v>328.63599184897</v>
+        <v>328.6359918489699</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506394</v>
+        <v>203.4874641506398</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139266</v>
+        <v>119.9738478139252</v>
       </c>
       <c r="L4" t="n">
-        <v>256.897104284606</v>
+        <v>256.8971042846074</v>
       </c>
       <c r="M4" t="n">
-        <v>328.63599184897</v>
+        <v>328.6359918489699</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506394</v>
+        <v>203.4874641506398</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139266</v>
+        <v>119.9738478139254</v>
       </c>
       <c r="L4" t="n">
-        <v>256.897104284606</v>
+        <v>256.8971042846072</v>
       </c>
       <c r="M4" t="n">
-        <v>328.63599184897</v>
+        <v>328.6359918489699</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506394</v>
+        <v>203.4874641506398</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619745</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27430,22 +27430,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032233</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862882</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>136.672003599508</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>157.1621355605639</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545475</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527771</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>148.0574169307593</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>10.90271287267643</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>161.493611791915</v>
       </c>
       <c r="V4" t="n">
-        <v>199.5834635392297</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508492</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>184.7933924673204</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>279.854660376542</v>
       </c>
       <c r="F5" t="n">
-        <v>23.18831792627873</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899765</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863674</v>
+        <v>99.30025118863684</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1149531848473</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,22 +27695,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>15.21998773527963</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>47.2279820337091</v>
       </c>
       <c r="G6" t="n">
         <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333227</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698458</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238325</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>76.36254314559811</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
         <v>150.7263422083601</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643493</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315183</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059546</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>222.4186055422208</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>179.7525712150705</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>141.7677285910698</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>26.03202314681326</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>146.8343127959627</v>
       </c>
       <c r="T10" t="n">
-        <v>24.63685048089965</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-7.032208304403596e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350877</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582785</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365127</v>
+        <v>2.883746537365125</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579062</v>
+        <v>29.53316922579059</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817692</v>
+        <v>111.1756383817691</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756937</v>
+        <v>244.7543826756935</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023596</v>
+        <v>366.8233736023593</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952477</v>
+        <v>455.0768316952473</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791148</v>
+        <v>506.3606591791143</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284035</v>
+        <v>514.554104028403</v>
       </c>
       <c r="O5" t="n">
-        <v>485.878849397479</v>
+        <v>485.8788493974785</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562773</v>
+        <v>414.686356756277</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868886</v>
+        <v>311.4121838868883</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277624</v>
+        <v>181.1461434277622</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020791</v>
+        <v>65.71337422020784</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731585</v>
+        <v>12.62360046731584</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892102</v>
+        <v>0.2306997229892099</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270409</v>
+        <v>1.542940423270407</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316421</v>
+        <v>14.9015561931642</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189785</v>
+        <v>53.1231680818978</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862626</v>
+        <v>145.7740335862625</v>
       </c>
       <c r="K6" t="n">
-        <v>249.15104194538</v>
+        <v>249.1510419453798</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438666</v>
+        <v>335.0143230438663</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874188</v>
+        <v>390.9459133874185</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189121</v>
+        <v>401.2930884189118</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348678</v>
+        <v>367.1047769348675</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190661</v>
+        <v>294.6339480190658</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739561</v>
+        <v>196.9549915739559</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392946</v>
+        <v>95.79765189392936</v>
       </c>
       <c r="S6" t="n">
-        <v>28.659441633992</v>
+        <v>28.65944163399197</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989057</v>
+        <v>6.219132670989051</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730532</v>
+        <v>0.1015092383730531</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141858</v>
+        <v>1.293549420141857</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907944</v>
+        <v>11.50083029907943</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572062</v>
+        <v>38.90055892572058</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402937</v>
+        <v>91.45394400402928</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401177</v>
+        <v>150.2869235401175</v>
       </c>
       <c r="L7" t="n">
-        <v>192.315520154545</v>
+        <v>192.3155201545448</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773278</v>
+        <v>202.7697513773276</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022538</v>
+        <v>197.9483399022536</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669602</v>
+        <v>182.83733076696</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960661</v>
+        <v>156.448922596066</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.317124626606</v>
+        <v>108.3171246266059</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565117</v>
+        <v>58.16268574565112</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101765</v>
+        <v>22.54303853101763</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060665</v>
+        <v>5.52698388606066</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864689</v>
+        <v>0.07055724109864682</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,10 +31844,10 @@
         <v>417.574675759838</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747748</v>
+        <v>346.5700931427896</v>
       </c>
       <c r="M12" t="n">
-        <v>265.0744558279835</v>
+        <v>655.2214742821478</v>
       </c>
       <c r="N12" t="n">
         <v>672.5632370340504</v>
@@ -31859,10 +31859,10 @@
         <v>493.8035753383445</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047539</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
         <v>48.03293999627653</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32330,13 +32330,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,7 +32552,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>456.3459017226598</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>753.6188077738268</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33260,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>714.932815742495</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33500,16 +33500,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>377.6350660745956</v>
+        <v>353.6230700590495</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,25 +33731,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M36" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,10 +33974,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34208,16 +34208,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4469701760392</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,13 +34451,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>281.0363767960755</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763038</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572289</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649633</v>
+        <v>125.9385470877686</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496797</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900742</v>
+        <v>63.70847814900719</v>
       </c>
       <c r="K5" t="n">
-        <v>146.733522557379</v>
+        <v>146.7335225573787</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252605</v>
+        <v>219.31041672526</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518421</v>
+        <v>276.0144259518415</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318125</v>
+        <v>285.1410404318121</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757922</v>
+        <v>255.7806379757918</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010078</v>
+        <v>183.4533610010074</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243913</v>
+        <v>89.10649401243884</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>40.49699644960582</v>
+        <v>18.93640691959581</v>
       </c>
       <c r="K6" t="n">
-        <v>111.309602971021</v>
+        <v>111.3096029710208</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639924</v>
+        <v>196.4599432639921</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794654005</v>
+        <v>248.8118794654002</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355789</v>
+        <v>383.6877278154316</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904234</v>
+        <v>224.508532490423</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047358</v>
+        <v>278.5610663907394</v>
       </c>
       <c r="Q6" t="n">
-        <v>267.0505052237836</v>
+        <v>56.97321748793433</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142348</v>
+        <v>128.0174317142347</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148612</v>
+        <v>219.905545414861</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391684</v>
+        <v>242.3536283391682</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814824</v>
+        <v>242.0805122814822</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809999</v>
+        <v>207.4224586809997</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609596</v>
+        <v>153.7274818609595</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491159</v>
+        <v>22.15508137491148</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676407</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>451.873198165787</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949006</v>
+        <v>208.0157133629154</v>
       </c>
       <c r="M12" t="n">
-        <v>122.9404219059652</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
         <v>541.2215249507171</v>
@@ -35507,10 +35507,10 @@
         <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187324</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655345</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35978,13 +35978,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>622.2770956904935</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,19 +36917,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>572.7987818204766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37148,16 +37148,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>235.5010321525773</v>
+        <v>211.4890361370311</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M36" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37856,16 +37856,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>138.9023428740572</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
